--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Guca2b-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Guca2b-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Guca2b</t>
   </si>
   <si>
     <t>Gucy2c</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,10 +543,10 @@
         <v>0.693292</v>
       </c>
       <c r="I2">
-        <v>0.9057845193067723</v>
+        <v>0.3508106486150334</v>
       </c>
       <c r="J2">
-        <v>0.9057845193067723</v>
+        <v>0.3508106486150334</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,10 +561,10 @@
         <v>0.379421</v>
       </c>
       <c r="O2">
-        <v>0.4712198005685622</v>
+        <v>0.1713830533493957</v>
       </c>
       <c r="P2">
-        <v>0.4712198005685622</v>
+        <v>0.1713830533493957</v>
       </c>
       <c r="Q2">
         <v>0.02922772710355556</v>
@@ -570,10 +573,10 @@
         <v>0.263049543932</v>
       </c>
       <c r="S2">
-        <v>0.4268236005458282</v>
+        <v>0.06012300010712636</v>
       </c>
       <c r="T2">
-        <v>0.4268236005458282</v>
+        <v>0.06012300010712636</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,10 +605,10 @@
         <v>0.693292</v>
       </c>
       <c r="I3">
-        <v>0.9057845193067723</v>
+        <v>0.3508106486150334</v>
       </c>
       <c r="J3">
-        <v>0.9057845193067723</v>
+        <v>0.3508106486150334</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,42 +617,42 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1419226666666667</v>
+        <v>0.5694333333333333</v>
       </c>
       <c r="N3">
-        <v>0.425768</v>
+        <v>1.7083</v>
       </c>
       <c r="O3">
-        <v>0.5287801994314378</v>
+        <v>0.7716327510516618</v>
       </c>
       <c r="P3">
-        <v>0.5287801994314378</v>
+        <v>0.7716327510516618</v>
       </c>
       <c r="Q3">
-        <v>0.03279794980622223</v>
+        <v>0.1315945248444444</v>
       </c>
       <c r="R3">
-        <v>0.295181548256</v>
+        <v>1.1843507236</v>
       </c>
       <c r="S3">
-        <v>0.4789609187609441</v>
+        <v>0.2706969858890361</v>
       </c>
       <c r="T3">
-        <v>0.4789609187609441</v>
+        <v>0.2706969858890361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.02403766666666667</v>
+        <v>0.2310973333333333</v>
       </c>
       <c r="H4">
-        <v>0.072113</v>
+        <v>0.693292</v>
       </c>
       <c r="I4">
-        <v>0.09421548069322776</v>
+        <v>0.3508106486150334</v>
       </c>
       <c r="J4">
-        <v>0.09421548069322776</v>
+        <v>0.3508106486150334</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1264736666666667</v>
+        <v>0.042052</v>
       </c>
       <c r="N4">
-        <v>0.379421</v>
+        <v>0.126156</v>
       </c>
       <c r="O4">
-        <v>0.4712198005685622</v>
+        <v>0.05698419559894249</v>
       </c>
       <c r="P4">
-        <v>0.4712198005685622</v>
+        <v>0.05698419559894248</v>
       </c>
       <c r="Q4">
-        <v>0.003040131841444445</v>
+        <v>0.009718105061333334</v>
       </c>
       <c r="R4">
-        <v>0.027361186573</v>
+        <v>0.087462945552</v>
       </c>
       <c r="S4">
-        <v>0.04439620002273401</v>
+        <v>0.01999066261887094</v>
       </c>
       <c r="T4">
-        <v>0.04439620002273401</v>
+        <v>0.01999066261887094</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.02403766666666667</v>
+        <v>0.05599466666666666</v>
       </c>
       <c r="H5">
-        <v>0.072113</v>
+        <v>0.167984</v>
       </c>
       <c r="I5">
-        <v>0.09421548069322776</v>
+        <v>0.08500109044522043</v>
       </c>
       <c r="J5">
-        <v>0.09421548069322776</v>
+        <v>0.08500109044522043</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +741,524 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1419226666666667</v>
+        <v>0.1264736666666667</v>
       </c>
       <c r="N5">
-        <v>0.425768</v>
+        <v>0.379421</v>
       </c>
       <c r="O5">
-        <v>0.5287801994314378</v>
+        <v>0.1713830533493957</v>
       </c>
       <c r="P5">
-        <v>0.5287801994314378</v>
+        <v>0.1713830533493957</v>
       </c>
       <c r="Q5">
-        <v>0.003411489753777778</v>
+        <v>0.007081850807111111</v>
       </c>
       <c r="R5">
-        <v>0.030703407784</v>
+        <v>0.063736657264</v>
       </c>
       <c r="S5">
-        <v>0.04981928067049375</v>
+        <v>0.01456774641853002</v>
       </c>
       <c r="T5">
-        <v>0.04981928067049375</v>
+        <v>0.01456774641853002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.05599466666666666</v>
+      </c>
+      <c r="H6">
+        <v>0.167984</v>
+      </c>
+      <c r="I6">
+        <v>0.08500109044522043</v>
+      </c>
+      <c r="J6">
+        <v>0.08500109044522043</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.5694333333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.7083</v>
+      </c>
+      <c r="O6">
+        <v>0.7716327510516618</v>
+      </c>
+      <c r="P6">
+        <v>0.7716327510516618</v>
+      </c>
+      <c r="Q6">
+        <v>0.03188522968888889</v>
+      </c>
+      <c r="R6">
+        <v>0.2869670672</v>
+      </c>
+      <c r="S6">
+        <v>0.06558962526263656</v>
+      </c>
+      <c r="T6">
+        <v>0.06558962526263656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.05599466666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.167984</v>
+      </c>
+      <c r="I7">
+        <v>0.08500109044522043</v>
+      </c>
+      <c r="J7">
+        <v>0.08500109044522043</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.042052</v>
+      </c>
+      <c r="N7">
+        <v>0.126156</v>
+      </c>
+      <c r="O7">
+        <v>0.05698419559894249</v>
+      </c>
+      <c r="P7">
+        <v>0.05698419559894248</v>
+      </c>
+      <c r="Q7">
+        <v>0.002354687722666666</v>
+      </c>
+      <c r="R7">
+        <v>0.021192189504</v>
+      </c>
+      <c r="S7">
+        <v>0.004843718764053842</v>
+      </c>
+      <c r="T7">
+        <v>0.004843718764053842</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1931553333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.579466</v>
+      </c>
+      <c r="I8">
+        <v>0.2932138886794582</v>
+      </c>
+      <c r="J8">
+        <v>0.2932138886794582</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1264736666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.379421</v>
+      </c>
+      <c r="O8">
+        <v>0.1713830533493957</v>
+      </c>
+      <c r="P8">
+        <v>0.1713830533493957</v>
+      </c>
+      <c r="Q8">
+        <v>0.02442906324288889</v>
+      </c>
+      <c r="R8">
+        <v>0.219861569186</v>
+      </c>
+      <c r="S8">
+        <v>0.05025189152633534</v>
+      </c>
+      <c r="T8">
+        <v>0.05025189152633534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1931553333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.579466</v>
+      </c>
+      <c r="I9">
+        <v>0.2932138886794582</v>
+      </c>
+      <c r="J9">
+        <v>0.2932138886794582</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5694333333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.7083</v>
+      </c>
+      <c r="O9">
+        <v>0.7716327510516618</v>
+      </c>
+      <c r="P9">
+        <v>0.7716327510516618</v>
+      </c>
+      <c r="Q9">
+        <v>0.1099890853111111</v>
+      </c>
+      <c r="R9">
+        <v>0.9899017678000001</v>
+      </c>
+      <c r="S9">
+        <v>0.2262534395682861</v>
+      </c>
+      <c r="T9">
+        <v>0.2262534395682861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1931553333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.579466</v>
+      </c>
+      <c r="I10">
+        <v>0.2932138886794582</v>
+      </c>
+      <c r="J10">
+        <v>0.2932138886794582</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.042052</v>
+      </c>
+      <c r="N10">
+        <v>0.126156</v>
+      </c>
+      <c r="O10">
+        <v>0.05698419559894249</v>
+      </c>
+      <c r="P10">
+        <v>0.05698419559894248</v>
+      </c>
+      <c r="Q10">
+        <v>0.008122568077333334</v>
+      </c>
+      <c r="R10">
+        <v>0.07310311269600001</v>
+      </c>
+      <c r="S10">
+        <v>0.01670855758483679</v>
+      </c>
+      <c r="T10">
+        <v>0.01670855758483679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.178505</v>
+      </c>
+      <c r="H11">
+        <v>0.535515</v>
+      </c>
+      <c r="I11">
+        <v>0.270974372260288</v>
+      </c>
+      <c r="J11">
+        <v>0.270974372260288</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1264736666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.379421</v>
+      </c>
+      <c r="O11">
+        <v>0.1713830533493957</v>
+      </c>
+      <c r="P11">
+        <v>0.1713830533493957</v>
+      </c>
+      <c r="Q11">
+        <v>0.02257618186833334</v>
+      </c>
+      <c r="R11">
+        <v>0.203185636815</v>
+      </c>
+      <c r="S11">
+        <v>0.04644041529740393</v>
+      </c>
+      <c r="T11">
+        <v>0.04644041529740393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.178505</v>
+      </c>
+      <c r="H12">
+        <v>0.535515</v>
+      </c>
+      <c r="I12">
+        <v>0.270974372260288</v>
+      </c>
+      <c r="J12">
+        <v>0.270974372260288</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.5694333333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.7083</v>
+      </c>
+      <c r="O12">
+        <v>0.7716327510516618</v>
+      </c>
+      <c r="P12">
+        <v>0.7716327510516618</v>
+      </c>
+      <c r="Q12">
+        <v>0.1016466971666667</v>
+      </c>
+      <c r="R12">
+        <v>0.9148202744999999</v>
+      </c>
+      <c r="S12">
+        <v>0.2090927003317031</v>
+      </c>
+      <c r="T12">
+        <v>0.2090927003317031</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.178505</v>
+      </c>
+      <c r="H13">
+        <v>0.535515</v>
+      </c>
+      <c r="I13">
+        <v>0.270974372260288</v>
+      </c>
+      <c r="J13">
+        <v>0.270974372260288</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.042052</v>
+      </c>
+      <c r="N13">
+        <v>0.126156</v>
+      </c>
+      <c r="O13">
+        <v>0.05698419559894249</v>
+      </c>
+      <c r="P13">
+        <v>0.05698419559894248</v>
+      </c>
+      <c r="Q13">
+        <v>0.00750649226</v>
+      </c>
+      <c r="R13">
+        <v>0.06755843033999999</v>
+      </c>
+      <c r="S13">
+        <v>0.0154412566311809</v>
+      </c>
+      <c r="T13">
+        <v>0.0154412566311809</v>
       </c>
     </row>
   </sheetData>
